--- a/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/03 Matches of one BFL.xlsx
+++ b/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/03 Matches of one BFL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amusali\Desktop\uc3m PhD\05 Analysis\01 Main\01 Stata\01 Main\01 Data load\02 Combine\_aux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D133C9-577C-4FAE-9E2E-A3D1A0A40941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091C385-A2F3-4DD6-8542-CA9C80634D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1865" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3055" uniqueCount="74">
   <si>
     <t>small_dataset_name</t>
   </si>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43610555-AFC1-4CD3-BC8A-9992907CA34B}">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +680,9 @@
       <c r="D5" s="1">
         <v>0.94736842105263164</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -692,7 +694,9 @@
       <c r="D6" s="1">
         <v>0.94736842105263164</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -1164,13 +1168,13 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>0.94736842105263164</v>
@@ -1194,13 +1198,13 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>0.94736842105263164</v>
@@ -1224,13 +1228,13 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>0.93333333333333324</v>
@@ -1239,13 +1243,13 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>0.93333333333333324</v>
@@ -1254,13 +1258,13 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1">
         <v>0.93333333333333324</v>
@@ -1269,13 +1273,13 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>0.93333333333333324</v>
@@ -1284,13 +1288,13 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1">
         <v>0.93333333333333324</v>
@@ -1299,13 +1303,13 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
         <v>0.93333333333333324</v>
@@ -1314,10 +1318,10 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -1344,13 +1348,13 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1">
         <v>0.92307692307692302</v>
@@ -1374,13 +1378,13 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1">
         <v>0.92307692307692302</v>
@@ -1392,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1419,13 +1423,13 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1">
         <v>0.88888888888888884</v>
@@ -1434,13 +1438,13 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1">
         <v>0.88888888888888884</v>
@@ -1449,7 +1453,7 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1494,13 +1498,13 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1">
         <v>0.875</v>
@@ -1509,13 +1513,13 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1">
         <v>0.875</v>
@@ -1554,7 +1558,7 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1569,13 +1573,13 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1">
         <v>0.83333333333333348</v>
@@ -1599,13 +1603,13 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1">
         <v>0.83333333333333348</v>
@@ -1614,13 +1618,13 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1">
         <v>0.82352941176470584</v>
@@ -1644,13 +1648,13 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1">
         <v>0.82352941176470584</v>
